--- a/data/trans_camb/P16_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>19,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>24,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,25</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11,9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 12,03</t>
+          <t>-6,41; 20,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 20,21</t>
+          <t>-2,37; 29,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 22,09</t>
+          <t>-2,1; 36,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 12,78</t>
+          <t>0,32; 45,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 18,56</t>
+          <t>-16,24; 24,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 42,32</t>
+          <t>-10,87; 25,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 8,59</t>
+          <t>-13,92; 26,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 16,45</t>
+          <t>-2,83; 38,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 32,03</t>
+          <t>-10,56; 17,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 23,21</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 26,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 38,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,81%</t>
+          <t>162,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>260,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>323,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>67,69%</t>
+          <t>21,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>52,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92,1%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 144,47</t>
+          <t>-57,7; 749,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 255,78</t>
+          <t>-29,56; 938,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 257,92</t>
+          <t>-11,62; 1169,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 50,95</t>
+          <t>6,34; 1462,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 71,44</t>
+          <t>-37,69; 89,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 172,99</t>
+          <t>-24,55; 99,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 42,76</t>
+          <t>-32,21; 101,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 89,97</t>
+          <t>-7,48; 161,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 169,63</t>
+          <t>-31,69; 111,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,33; 143,0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 154,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 225,31</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,25</t>
+          <t>-4,28; 7,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 4,23</t>
+          <t>-4,2; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,19</t>
+          <t>-0,19; 13,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 1,64</t>
+          <t>4,39; 27,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 5,43</t>
+          <t>-8,17; 7,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 10,85</t>
+          <t>-4,72; 10,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 0,83</t>
+          <t>-4,19; 12,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,95</t>
+          <t>3,03; 20,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 6,58</t>
+          <t>-4,38; 5,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 7,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 9,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 20,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,94%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>182,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,28%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37,47%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>101,23%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 52,41</t>
+          <t>-45,88; 175,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 70,77</t>
+          <t>-42,15; 184,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 99,76</t>
+          <t>-6,36; 290,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,91; 11,46</t>
+          <t>31,27; 589,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 37,2</t>
+          <t>-42,12; 59,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 70,5</t>
+          <t>-23,78; 86,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 7,15</t>
+          <t>-22,76; 100,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 26,31</t>
+          <t>12,97; 169,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 54,09</t>
+          <t>-31,52; 58,61</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,22; 74,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 103,67</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39,26; 203,63</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 9,1</t>
+          <t>-3,32; 14,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,89</t>
+          <t>-4,35; 15,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 8,5</t>
+          <t>-3,64; 13,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 2,08</t>
+          <t>-1,84; 15,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,31</t>
+          <t>-9,66; 2,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 6,23</t>
+          <t>-5,11; 8,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,57</t>
+          <t>-6,14; 7,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,96</t>
+          <t>-2,81; 12,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,21</t>
+          <t>-4,77; 5,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 8,89</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 6,74</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 10,65</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>53,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-28,29%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>-32,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,95%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23,21%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>18,06%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>59,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 157,69</t>
+          <t>-47,86; 397,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 151,52</t>
+          <t>-54,73; 390,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 150,12</t>
+          <t>-45,03; 326,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,53; 30,04</t>
+          <t>-33,16; 414,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 134,29</t>
+          <t>-73,96; 41,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 78,36</t>
+          <t>-39,46; 132,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,91; 49,63</t>
+          <t>-49,02; 113,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 86,08</t>
+          <t>-22,54; 188,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 71,54</t>
+          <t>-46,46; 89,8</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-27,76; 136,71</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-32,63; 112,34</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 166,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 46,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 56,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 79,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 43,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 81,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 12,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 38,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,45; 68,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12,78</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11,38</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 8,55</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 8,74</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 12,35</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 21,57</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 4,93</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 8,57</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 8,15</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 19,43</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 4,82</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 6,74</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 8,43</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 16,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>43,93%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>46,96%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>178,85%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-6,87%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>70,26%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38,6%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>99,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 162,78</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; 154,19</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>20,8; 226,71</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>67,59; 404,34</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-33,8; 36,58</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-13,06; 65,35</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-13,72; 65,25</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27,21; 142,62</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; 45,87</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 65,74</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 82,62</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>52,61; 160,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
